--- a/CODIGO-FONTE/Monografia/Perguntas e Ferramentas.xlsx
+++ b/CODIGO-FONTE/Monografia/Perguntas e Ferramentas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Categorias" sheetId="3" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>ELK</t>
   </si>
   <si>
-    <t>O ELK Stack é uma coleção de três produtos de código aberto - Elasticsearch, Logstash e Kibana, onde E significa ElasticSearch: usado para armazenar logs, L significa LogStash: usado para envio, bem como processamento e armazenamento de logs e K significa Kibana: é uma ferramenta de visualização (um</t>
-  </si>
-  <si>
     <t>GitLab</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>Nexus</t>
   </si>
   <si>
-    <t>Nexus é um repositório de código aberto que oferece suporte a muitos formatos de artefatos, incluindo Docker, Java e npm. Com a integração da ferramenta Nexus, as pipelines em seu conjunto de ferramentas podem publicar e recuperar aplicativos com versão e suas dependências usando repositórios centra</t>
-  </si>
-  <si>
     <t>Rundeck</t>
   </si>
   <si>
@@ -305,6 +299,12 @@
   </si>
   <si>
     <t>Identificação de indisponibilidades.</t>
+  </si>
+  <si>
+    <t>O ELK Stack é uma coleção de três produtos de código aberto - Elasticsearch, Logstash e Kibana. Esta coleção é usada para armazenar, processar e visualizar logs.</t>
+  </si>
+  <si>
+    <t>Nexus é um repositório de código aberto que oferece suporte a muitos formatos de artefatos, incluindo Docker, Java e npm. Com o Nexus, as pipelines podem publicar e recuperar aplicativos baseando-se em versão, resolvedo dependências.</t>
   </si>
 </sst>
 </file>
@@ -643,17 +643,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -671,15 +671,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -753,10 +753,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -764,10 +764,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -775,10 +775,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -786,10 +786,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -797,10 +797,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -808,10 +808,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -819,10 +819,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -830,10 +830,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -897,16 +897,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,16 +914,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,16 +931,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,16 +948,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,16 +965,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -982,16 +982,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,16 +999,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1016,16 +1016,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,16 +1033,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,16 +1050,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,16 +1067,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,16 +1084,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,16 +1101,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,16 +1118,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1135,16 +1135,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,16 +1152,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1169,16 +1169,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,16 +1186,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1203,16 +1203,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1220,16 +1220,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1237,16 +1237,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,16 +1254,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,16 +1271,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,16 +1288,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1305,16 +1305,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
